--- a/成果物/プロジェクト型演習_成果物フォーマット 寺西.xlsx
+++ b/成果物/プロジェクト型演習_成果物フォーマット 寺西.xlsx
@@ -5,10 +5,10 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\user\Desktop\新しいフォルダー\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\pleiades\workspace\task_mgmt_system\成果物\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C742398A-988A-4A4E-A1C9-09A91BE35253}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{70C588D2-301E-4C8D-B3D7-4D3FB031B39F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11040" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -30,7 +30,6 @@
     <sheet name="テスト仕様書兼結果報告書 パスワード" sheetId="15" r:id="rId15"/>
   </sheets>
   <calcPr calcId="191029"/>
-  <fileRecoveryPr repairLoad="1"/>
   <extLst>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
@@ -48,7 +47,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="504" uniqueCount="166">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="514" uniqueCount="167">
   <si>
     <t>プロジェクト型演習　成果ドキュメント</t>
   </si>
@@ -1220,7 +1219,17 @@
     <phoneticPr fontId="10"/>
   </si>
   <si>
-    <t>タスクマネジメントシステム</t>
+    <t>完了</t>
+    <rPh sb="0" eb="2">
+      <t>カンリョウ</t>
+    </rPh>
+    <phoneticPr fontId="10"/>
+  </si>
+  <si>
+    <t>タスク管理システム(task_mgmt_system)</t>
+    <rPh sb="3" eb="5">
+      <t>カンリ</t>
+    </rPh>
     <phoneticPr fontId="10"/>
   </si>
 </sst>
@@ -2016,7 +2025,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="134">
+  <cellXfs count="135">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
@@ -2418,6 +2427,9 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="38" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="14" fontId="5" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -3036,8 +3048,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="C1:P1000"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="G17" sqref="G17:K17"/>
+    <sheetView tabSelected="1" topLeftCell="A5" workbookViewId="0">
+      <selection activeCell="O11" sqref="O11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -3147,7 +3159,7 @@
     </row>
     <row r="8" spans="3:16" ht="30" customHeight="1">
       <c r="E8" s="48" t="s">
-        <v>165</v>
+        <v>166</v>
       </c>
       <c r="F8" s="45"/>
       <c r="G8" s="45"/>
@@ -3176,7 +3188,9 @@
     <row r="14" spans="3:16" ht="15.75" customHeight="1">
       <c r="G14" s="41"/>
       <c r="H14" s="43"/>
-      <c r="I14" s="41"/>
+      <c r="I14" s="134">
+        <v>45898</v>
+      </c>
       <c r="J14" s="42"/>
       <c r="K14" s="43"/>
     </row>
@@ -10659,8 +10673,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1B68428E-5A95-4DA5-9416-73371F880C57}">
   <dimension ref="A1:Z1000"/>
   <sheetViews>
-    <sheetView topLeftCell="A6" workbookViewId="0">
-      <selection activeCell="T20" sqref="T20"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="W19" sqref="W19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -11129,8 +11143,12 @@
       <c r="R16" s="40">
         <v>45890</v>
       </c>
-      <c r="S16" s="33"/>
-      <c r="T16" s="34"/>
+      <c r="S16" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="T16" s="34" t="s">
+        <v>165</v>
+      </c>
       <c r="U16" s="35"/>
       <c r="V16" s="35"/>
       <c r="W16" s="35"/>
@@ -11173,8 +11191,12 @@
       <c r="R17" s="40">
         <v>45890</v>
       </c>
-      <c r="S17" s="33"/>
-      <c r="T17" s="34"/>
+      <c r="S17" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="T17" s="34" t="s">
+        <v>165</v>
+      </c>
       <c r="U17" s="35"/>
       <c r="V17" s="35"/>
       <c r="W17" s="35"/>
@@ -11217,8 +11239,12 @@
       <c r="R18" s="40">
         <v>45890</v>
       </c>
-      <c r="S18" s="33"/>
-      <c r="T18" s="34"/>
+      <c r="S18" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="T18" s="34" t="s">
+        <v>165</v>
+      </c>
       <c r="U18" s="35"/>
       <c r="V18" s="35"/>
       <c r="W18" s="35"/>
@@ -11261,8 +11287,12 @@
       <c r="R19" s="40">
         <v>45890</v>
       </c>
-      <c r="S19" s="33"/>
-      <c r="T19" s="34"/>
+      <c r="S19" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="T19" s="34" t="s">
+        <v>165</v>
+      </c>
       <c r="U19" s="35"/>
       <c r="V19" s="35"/>
       <c r="W19" s="35"/>
@@ -11305,8 +11335,12 @@
       <c r="R20" s="40">
         <v>45890</v>
       </c>
-      <c r="S20" s="33"/>
-      <c r="T20" s="34"/>
+      <c r="S20" s="33" t="s">
+        <v>62</v>
+      </c>
+      <c r="T20" s="34" t="s">
+        <v>165</v>
+      </c>
       <c r="U20" s="35"/>
       <c r="V20" s="35"/>
       <c r="W20" s="35"/>
@@ -14924,7 +14958,7 @@
   <dimension ref="A1:J1000"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D10" sqref="D10:J10"/>
+      <selection activeCell="N8" sqref="N8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" customHeight="1"/>
@@ -22945,7 +22979,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D00FD9C8-7124-4E3E-95A2-F4E099567A33}">
   <dimension ref="A1:K1000"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A3" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="Q24" sqref="Q24"/>
     </sheetView>
   </sheetViews>
